--- a/data_processed/20250814/BTCUSDQMOMENT_20250814.xlsx
+++ b/data_processed/20250814/BTCUSDQMOMENT_20250814.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>11.93229485579146</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.7766300884562578</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.197766400003976</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2003848170313115</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.53868442540057</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1110,10 +1118,18 @@
       <c r="H18" t="n">
         <v>7.099364424577178</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>-0.9902044561778961</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2497106689931531</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2162614919740294</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.124678745864521</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250814/BTCUSDQMOMENT_20250814.xlsx
+++ b/data_processed/20250814/BTCUSDQMOMENT_20250814.xlsx
@@ -1160,10 +1160,18 @@
       <c r="H19" t="n">
         <v>6.236857686632747</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>-0.9853713629864949</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2062375548920074</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2052426328312739</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.39656107586889</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250814/BTCUSDQMOMENT_20250814.xlsx
+++ b/data_processed/20250814/BTCUSDQMOMENT_20250814.xlsx
@@ -552,19 +552,19 @@
         <v>0.1178082191780822</v>
       </c>
       <c r="D3" t="n">
-        <v>119159.0374712735</v>
+        <v>119173.8124178505</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01761833315696376</v>
+        <v>-0.0165108791718419</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1705122963931467</v>
+        <v>0.1622768345493927</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.645908894215605</v>
+        <v>-0.9397993120033892</v>
       </c>
       <c r="H3" t="n">
-        <v>20.92125697137372</v>
+        <v>9.783183741663269</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -620,19 +620,19 @@
         <v>0.2904109589041096</v>
       </c>
       <c r="D5" t="n">
-        <v>120694.1038911993</v>
+        <v>120877.9374610504</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02753317133193197</v>
+        <v>-0.01980176926448701</v>
       </c>
       <c r="F5" t="n">
-        <v>0.237983293436783</v>
+        <v>0.2021236676005423</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.034175390744598</v>
+        <v>-0.7896683851472568</v>
       </c>
       <c r="H5" t="n">
-        <v>20.22308411504718</v>
+        <v>8.701746013044438</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -654,19 +654,19 @@
         <v>0.3671232876712329</v>
       </c>
       <c r="D6" t="n">
-        <v>121315.4517676193</v>
+        <v>121332.9788333115</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0326887903819956</v>
+        <v>-0.03141706436792297</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2497145846658737</v>
+        <v>0.2395987164369215</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.755205492525486</v>
+        <v>-1.227447440299993</v>
       </c>
       <c r="H6" t="n">
-        <v>18.44496779749801</v>
+        <v>10.46161784128113</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -688,19 +688,19 @@
         <v>0.463013698630137</v>
       </c>
       <c r="D7" t="n">
-        <v>122468.3787828569</v>
+        <v>122567.858691734</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03705151315608499</v>
+        <v>-0.03322405798612654</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2548926784674944</v>
+        <v>0.2411684987456979</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.9465325896181596</v>
+        <v>-0.6963525108543913</v>
       </c>
       <c r="H7" t="n">
-        <v>6.861719132217059</v>
+        <v>5.579453760602306</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.7890410958904109</v>
       </c>
       <c r="D8" t="n">
-        <v>122979.9438870832</v>
+        <v>122976.3775938635</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.051253162990237</v>
+        <v>-0.05130078717971131</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2179351059500783</v>
+        <v>0.2179065660504709</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.8239834376164457</v>
+        <v>-0.81845030295635</v>
       </c>
       <c r="H8" t="n">
-        <v>6.452429828668502</v>
+        <v>6.389084136372018</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.8657534246575342</v>
       </c>
       <c r="D9" t="n">
-        <v>124560.3142996186</v>
+        <v>124609.9680254168</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.08826069418093561</v>
+        <v>-0.07968831576119446</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3898480833554797</v>
+        <v>0.3294018326843595</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.465377761152122</v>
+        <v>-1.419806925590777</v>
       </c>
       <c r="H9" t="n">
-        <v>18.37398098120435</v>
+        <v>9.24521707517148</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.115068493150685</v>
       </c>
       <c r="D10" t="n">
-        <v>126069.6519181764</v>
+        <v>126070.0701046711</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1133246433747992</v>
+        <v>-0.114435350839649</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4210709932930468</v>
+        <v>0.4294800091287003</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.796473858964666</v>
+        <v>-1.90576394231044</v>
       </c>
       <c r="H10" t="n">
-        <v>8.99798293666481</v>
+        <v>9.916455759707791</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.361643835616438</v>
       </c>
       <c r="D11" t="n">
-        <v>128158.5172968986</v>
+        <v>128137.9165053551</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1779612715296315</v>
+        <v>-0.1880243208342523</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6703768621863591</v>
+        <v>0.7478405327394673</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.248453599786358</v>
+        <v>-2.617708984956492</v>
       </c>
       <c r="H11" t="n">
-        <v>9.789729132895978</v>
+        <v>12.86694679065372</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -858,19 +858,19 @@
         <v>0.01095890410958904</v>
       </c>
       <c r="D12" t="n">
-        <v>118398.2834179673</v>
+        <v>118396.153735129</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.03555315316240241</v>
+        <v>-0.03575016654458062</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1314581177909604</v>
+        <v>0.1319657899133331</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.245179574921702</v>
+        <v>-1.264644170504328</v>
       </c>
       <c r="H12" t="n">
-        <v>10.88430181487841</v>
+        <v>11.0022762263902</v>
       </c>
       <c r="I12" t="n">
         <v>-0.2339677163272489</v>
@@ -984,19 +984,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D15" t="n">
-        <v>118394.0272434165</v>
+        <v>118464.1871531095</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03377406142902994</v>
+        <v>-0.0277054698797307</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1732330946144517</v>
+        <v>0.1421213205178096</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.125465560581806</v>
+        <v>-0.3546488050891341</v>
       </c>
       <c r="H15" t="n">
-        <v>23.15296129160366</v>
+        <v>5.74444265314017</v>
       </c>
       <c r="I15" t="n">
         <v>-0.4898878364037481</v>
@@ -1062,19 +1062,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D17" t="n">
-        <v>118376.1147777704</v>
+        <v>118401.252049103</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0324291414455575</v>
+        <v>-0.03024213019375558</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1499023343599074</v>
+        <v>0.1376752397513106</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.329935561971793</v>
+        <v>-0.5771489722336368</v>
       </c>
       <c r="H17" t="n">
-        <v>13.23561094279413</v>
+        <v>6.480858352249357</v>
       </c>
       <c r="I17" t="n">
         <v>-0.4991385981456503</v>
@@ -1188,19 +1188,19 @@
         <v>0.09863013698630137</v>
       </c>
       <c r="D20" t="n">
-        <v>119243.5225135787</v>
+        <v>119583.1890569612</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.01657404546583485</v>
+        <v>-0.002226389464698468</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1927452803125149</v>
+        <v>0.1474509123258346</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.91047321480405</v>
+        <v>-0.3607265038845483</v>
       </c>
       <c r="H20" t="n">
-        <v>17.20493358535747</v>
+        <v>7.367402260957602</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>

--- a/data_processed/20250814/BTCUSDQMOMENT_20250814.xlsx
+++ b/data_processed/20250814/BTCUSDQMOMENT_20250814.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>9.783183741663269</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.8926270003274449</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1998869090959396</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.1629355222031147</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.222777772457852</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1202,10 +1210,18 @@
       <c r="H20" t="n">
         <v>7.367402260957602</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.8849634774476736</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2120375510351889</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.1600920776776984</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.166300016238559</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250814/BTCUSDQMOMENT_20250814.xlsx
+++ b/data_processed/20250814/BTCUSDQMOMENT_20250814.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>10.97878240271202</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.8499757026326253</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4695572284139592</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6273898113437535</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.108478537897936</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
